--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H2">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I2">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J2">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.2504514262325</v>
+        <v>10.30349533333333</v>
       </c>
       <c r="N2">
-        <v>10.2504514262325</v>
+        <v>30.910486</v>
       </c>
       <c r="O2">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="P2">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="Q2">
-        <v>83.32620444751493</v>
+        <v>84.49586044207291</v>
       </c>
       <c r="R2">
-        <v>83.32620444751493</v>
+        <v>760.4627439786561</v>
       </c>
       <c r="S2">
-        <v>0.130822910149578</v>
+        <v>0.1287433500124864</v>
       </c>
       <c r="T2">
-        <v>0.130822910149578</v>
+        <v>0.1287433500124864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H3">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I3">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J3">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.89030566471343</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N3">
-        <v>7.89030566471343</v>
+        <v>23.783849</v>
       </c>
       <c r="O3">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="P3">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="Q3">
-        <v>64.14051397665574</v>
+        <v>65.0147262608338</v>
       </c>
       <c r="R3">
-        <v>64.14051397665574</v>
+        <v>585.1325363475041</v>
       </c>
       <c r="S3">
-        <v>0.1007011990111838</v>
+        <v>0.09906063581307407</v>
       </c>
       <c r="T3">
-        <v>0.1007011990111838</v>
+        <v>0.09906063581307409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.12902778450032</v>
+        <v>8.200698666666668</v>
       </c>
       <c r="H4">
-        <v>8.12902778450032</v>
+        <v>24.602096</v>
       </c>
       <c r="I4">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="J4">
-        <v>0.342746947610842</v>
+        <v>0.3423472217473603</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.71471443126225</v>
+        <v>9.167042</v>
       </c>
       <c r="N4">
-        <v>8.71471443126225</v>
+        <v>27.501126</v>
       </c>
       <c r="O4">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="P4">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="Q4">
-        <v>70.84215574571672</v>
+        <v>75.17614910667734</v>
       </c>
       <c r="R4">
-        <v>70.84215574571672</v>
+        <v>676.5853419600961</v>
       </c>
       <c r="S4">
-        <v>0.1112228384500803</v>
+        <v>0.1145432359217998</v>
       </c>
       <c r="T4">
-        <v>0.1112228384500803</v>
+        <v>0.1145432359217998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H5">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I5">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J5">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2504514262325</v>
+        <v>10.30349533333333</v>
       </c>
       <c r="N5">
-        <v>10.2504514262325</v>
+        <v>30.910486</v>
       </c>
       <c r="O5">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="P5">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="Q5">
-        <v>108.5789372945022</v>
+        <v>109.5070252369978</v>
       </c>
       <c r="R5">
-        <v>108.5789372945022</v>
+        <v>985.5632271329802</v>
       </c>
       <c r="S5">
-        <v>0.1704699338221082</v>
+        <v>0.1668519760039397</v>
       </c>
       <c r="T5">
-        <v>0.1704699338221082</v>
+        <v>0.1668519760039398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H6">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I6">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J6">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.89030566471343</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N6">
-        <v>7.89030566471343</v>
+        <v>23.783849</v>
       </c>
       <c r="O6">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="P6">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="Q6">
-        <v>83.57885603075906</v>
+        <v>84.25938539678558</v>
       </c>
       <c r="R6">
-        <v>83.57885603075906</v>
+        <v>758.3344685710701</v>
       </c>
       <c r="S6">
-        <v>0.1312195754674459</v>
+        <v>0.1283830413610878</v>
       </c>
       <c r="T6">
-        <v>0.1312195754674459</v>
+        <v>0.1283830413610878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.5926005382194</v>
+        <v>10.62814333333333</v>
       </c>
       <c r="H7">
-        <v>10.5926005382194</v>
+        <v>31.88443</v>
       </c>
       <c r="I7">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477486</v>
       </c>
       <c r="J7">
-        <v>0.4466193987746136</v>
+        <v>0.4436835799477487</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.71471443126225</v>
+        <v>9.167042</v>
       </c>
       <c r="N7">
-        <v>8.71471443126225</v>
+        <v>27.501126</v>
       </c>
       <c r="O7">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="P7">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="Q7">
-        <v>92.31148877501688</v>
+        <v>97.42863631868667</v>
       </c>
       <c r="R7">
-        <v>92.31148877501688</v>
+        <v>876.8577268681801</v>
       </c>
       <c r="S7">
-        <v>0.1449298894850596</v>
+        <v>0.148448562582721</v>
       </c>
       <c r="T7">
-        <v>0.1449298894850596</v>
+        <v>0.1484485625827211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H8">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I8">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J8">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.2504514262325</v>
+        <v>10.30349533333333</v>
       </c>
       <c r="N8">
-        <v>10.2504514262325</v>
+        <v>30.910486</v>
       </c>
       <c r="O8">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="P8">
-        <v>0.3816894973434323</v>
+        <v>0.376060741358942</v>
       </c>
       <c r="Q8">
-        <v>51.20775839713816</v>
+        <v>52.81045199255134</v>
       </c>
       <c r="R8">
-        <v>51.20775839713816</v>
+        <v>475.294067932962</v>
       </c>
       <c r="S8">
-        <v>0.08039665337174609</v>
+        <v>0.08046541534251579</v>
       </c>
       <c r="T8">
-        <v>0.08039665337174609</v>
+        <v>0.08046541534251581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H9">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I9">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J9">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.89030566471343</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N9">
-        <v>7.89030566471343</v>
+        <v>23.783849</v>
       </c>
       <c r="O9">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="P9">
-        <v>0.2938062606046045</v>
+        <v>0.2893572067197239</v>
       </c>
       <c r="Q9">
-        <v>39.41727533327968</v>
+        <v>40.63461880905367</v>
       </c>
       <c r="R9">
-        <v>39.41727533327968</v>
+        <v>365.711569281483</v>
       </c>
       <c r="S9">
-        <v>0.06188548612597482</v>
+        <v>0.06191352954556195</v>
       </c>
       <c r="T9">
-        <v>0.06188548612597482</v>
+        <v>0.06191352954556196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.99565885128625</v>
+        <v>5.125489</v>
       </c>
       <c r="H10">
-        <v>4.99565885128625</v>
+        <v>15.376467</v>
       </c>
       <c r="I10">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="J10">
-        <v>0.2106336536145444</v>
+        <v>0.2139691983048911</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.71471443126225</v>
+        <v>9.167042</v>
       </c>
       <c r="N10">
-        <v>8.71471443126225</v>
+        <v>27.501126</v>
       </c>
       <c r="O10">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="P10">
-        <v>0.3245042420519633</v>
+        <v>0.3345820519213342</v>
       </c>
       <c r="Q10">
-        <v>43.53574028496728</v>
+        <v>46.985572933538</v>
       </c>
       <c r="R10">
-        <v>43.53574028496728</v>
+        <v>422.870156401842</v>
       </c>
       <c r="S10">
-        <v>0.06835151411682351</v>
+        <v>0.07159025341681331</v>
       </c>
       <c r="T10">
-        <v>0.06835151411682351</v>
+        <v>0.07159025341681331</v>
       </c>
     </row>
   </sheetData>
